--- a/PY_ERP_PROJECT/PY21_ERP_TAG_THUONG_MAI/assets/templates/excel/PRINT_KD0201.xlsx
+++ b/PY_ERP_PROJECT/PY21_ERP_TAG_THUONG_MAI/assets/templates/excel/PRINT_KD0201.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\ICONS\GITHUB\PYTHON_MINI_PROJECTS\PY21_ERP_TAG_THUONG_MAI\assets\templates\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\ICONS\GITHUB\PYTHON_MINI_PROJECTS\PY_ERP_PROJECT\PY21_ERP_TAG_THUONG_MAI\assets\templates\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="48">
   <si>
     <t>FIRST_COLUMN</t>
   </si>
@@ -168,22 +168,7 @@
     <t>* Số hợp đồng:</t>
   </si>
   <si>
-    <t>cột 1</t>
-  </si>
-  <si>
-    <t>cột 2</t>
-  </si>
-  <si>
-    <t>cột 3</t>
-  </si>
-  <si>
-    <t>cột 4</t>
-  </si>
-  <si>
-    <t>cột 5</t>
-  </si>
-  <si>
-    <t>cột 6</t>
+    <t>TABLE_COLUMN</t>
   </si>
 </sst>
 </file>
@@ -907,10 +892,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="SH_PRINT"/>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -927,7 +912,7 @@
     <col min="11" max="11" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -945,8 +930,12 @@
       <c r="K1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -963,7 +952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="56"/>
       <c r="C3" s="57"/>
@@ -977,7 +966,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="56"/>
       <c r="C4" s="57"/>
@@ -991,7 +980,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="58"/>
       <c r="C5" s="59"/>
@@ -1008,7 +997,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
         <v>44</v>
@@ -1032,7 +1021,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="26" t="s">
         <v>45</v>
@@ -1056,7 +1045,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="8" t="s">
         <v>42</v>
@@ -1075,7 +1064,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1103,33 +1092,39 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="63" t="s">
-        <v>49</v>
+      <c r="B10" s="22">
+        <f>+M2</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="23">
+        <f>+N2</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="63">
+        <f>+O2</f>
+        <v>0</v>
       </c>
       <c r="E10" s="49"/>
-      <c r="F10" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="48" t="s">
-        <v>51</v>
+      <c r="F10" s="24">
+        <f>+P2</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="48">
+        <f>+Q2</f>
+        <v>0</v>
       </c>
       <c r="H10" s="49"/>
-      <c r="I10" s="24" t="s">
-        <v>52</v>
+      <c r="I10" s="24">
+        <f>+R2</f>
+        <v>0</v>
       </c>
       <c r="K10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1147,7 +1142,7 @@
       <c r="H11" s="52"/>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="60" t="s">
         <v>20</v>
@@ -1170,7 +1165,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="37" t="s">
         <v>25</v>
@@ -1193,7 +1188,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="37" t="s">
         <v>27</v>
@@ -1214,7 +1209,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1225,7 +1220,7 @@
       <c r="H15" s="13"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>

--- a/PY_ERP_PROJECT/PY21_ERP_TAG_THUONG_MAI/assets/templates/excel/PRINT_KD0201.xlsx
+++ b/PY_ERP_PROJECT/PY21_ERP_TAG_THUONG_MAI/assets/templates/excel/PRINT_KD0201.xlsx
@@ -16,14 +16,14 @@
     <sheet name="TEMPLATE" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">KD0201_YEU_CAU_DAT_HANG!$A$1:$I$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">KD0201_YEU_CAU_DAT_HANG!$B$2:$L$18</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="44">
   <si>
     <t>FIRST_COLUMN</t>
   </si>
@@ -126,30 +126,6 @@
     <t>LAST_ROW</t>
   </si>
   <si>
-    <t>TB-YCDH-250120</t>
-  </si>
-  <si>
-    <t>KH-0006</t>
-  </si>
-  <si>
-    <t>Công ty cổ phần Long An 01</t>
-  </si>
-  <si>
-    <t>1181712364</t>
-  </si>
-  <si>
-    <t>Đường 5 Xã 27 Phường 55 TP.HCM</t>
-  </si>
-  <si>
-    <t>HD07836/HCM/2024</t>
-  </si>
-  <si>
-    <t>Hợp đồng liên danh</t>
-  </si>
-  <si>
-    <t>Giao sớm nhen</t>
-  </si>
-  <si>
     <t>Phiếu yêu cầu đặt hàng</t>
   </si>
   <si>
@@ -169,6 +145,18 @@
   </si>
   <si>
     <t>TABLE_COLUMN</t>
+  </si>
+  <si>
+    <t>SL tồn kho</t>
+  </si>
+  <si>
+    <t>SL khả dụng</t>
+  </si>
+  <si>
+    <t>SL nhu cầu</t>
+  </si>
+  <si>
+    <t>SL YCDH</t>
   </si>
 </sst>
 </file>
@@ -450,7 +438,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -530,6 +518,26 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -568,10 +576,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -602,11 +610,21 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -626,6 +644,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1352550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1181100" y="361950"/>
+          <a:ext cx="1714500" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -892,10 +959,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="SH_PRINT"/>
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -906,13 +973,14 @@
     <col min="4" max="4" width="19.21875" customWidth="1"/>
     <col min="5" max="5" width="13.88671875" customWidth="1"/>
     <col min="6" max="6" width="15.44140625" customWidth="1"/>
-    <col min="7" max="7" width="3" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" customWidth="1"/>
-    <col min="9" max="9" width="19.77734375" customWidth="1"/>
-    <col min="11" max="11" width="34.6640625" customWidth="1"/>
+    <col min="7" max="9" width="15.44140625" style="35" customWidth="1"/>
+    <col min="10" max="10" width="3" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" customWidth="1"/>
+    <col min="12" max="12" width="19.77734375" customWidth="1"/>
+    <col min="14" max="14" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -923,148 +991,155 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1"/>
+      <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O1" s="1"/>
+      <c r="P1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="34" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="41" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="35"/>
-      <c r="K3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="42"/>
+    </row>
+    <row r="4" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="35"/>
-      <c r="K4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="63"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="42"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="39" t="str">
-        <f>+"Ngày "&amp;DAY(K2)&amp;" tháng "&amp;MONTH(K2)&amp;" năm "&amp;YEAR(K2)</f>
+      <c r="B5" s="65"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="46" t="str">
+        <f>+"Ngày "&amp;DAY(N2)&amp;" tháng "&amp;MONTH(N2)&amp;" năm "&amp;YEAR(N2)</f>
         <v>Ngày 0 tháng 1 năm 1900</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="36"/>
-      <c r="K5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="43"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="3" t="str">
-        <f>+K4</f>
-        <v>KH-0006</v>
+      <c r="D6" s="3">
+        <f>+N4</f>
+        <v>0</v>
       </c>
       <c r="E6" s="20"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="7" t="str">
-        <f>+K3</f>
-        <v>TB-YCDH-250120</v>
-      </c>
-      <c r="K6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="7">
+        <f>+N3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="26" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C7" s="27"/>
-      <c r="D7" s="27" t="str">
-        <f>+K5</f>
-        <v>Công ty cổ phần Long An 01</v>
+      <c r="D7" s="27">
+        <f>+N5</f>
+        <v>0</v>
       </c>
       <c r="E7" s="28"/>
       <c r="F7" s="27"/>
       <c r="G7" s="27"/>
-      <c r="H7" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="30" t="str">
-        <f>+K8</f>
-        <v>HD07836/HCM/2024</v>
-      </c>
-      <c r="K7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="30">
+        <f>+N8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="8" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C8" s="9"/>
-      <c r="D8" s="9" t="str">
-        <f>+K10</f>
-        <v>Giao sớm nhen</v>
+      <c r="D8" s="9">
+        <f>+N10</f>
+        <v>0</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="16"/>
-      <c r="K8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="16"/>
+      <c r="N8"/>
+    </row>
+    <row r="9" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1074,57 +1149,72 @@
       <c r="C9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="52"/>
+      <c r="E9" s="59"/>
       <c r="F9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="52"/>
-      <c r="I9" s="11" t="s">
+      <c r="G9" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="59"/>
+      <c r="L9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="22">
-        <f>+M2</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="23">
-        <f>+N2</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="63">
-        <f>+O2</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="24">
+      <c r="B10" s="38">
         <f>+P2</f>
         <v>0</v>
       </c>
-      <c r="G10" s="48">
+      <c r="C10" s="38">
         <f>+Q2</f>
         <v>0</v>
       </c>
-      <c r="H10" s="49"/>
-      <c r="I10" s="24">
+      <c r="D10" s="70">
         <f>+R2</f>
         <v>0</v>
       </c>
-      <c r="K10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="71"/>
+      <c r="F10" s="38">
+        <f>+S2</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="39">
+        <f>+T2</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="39">
+        <f t="shared" ref="H10:I10" si="0">+U2</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="55">
+        <f>+W2</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="56"/>
+      <c r="L10" s="40" t="str">
+        <f>IF(X2=0,"",X2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1135,19 +1225,31 @@
       <c r="F11" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="62">
-        <f>SUM(G10:G10)</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="52"/>
-      <c r="I11" s="12"/>
-    </row>
-    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="33">
+        <f>SUM($G$10:G10)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="33">
+        <f>SUM($H$10:H10)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="33">
+        <f>SUM($I$10:I10)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="69">
+        <f>SUM($J$10:J10)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="59"/>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="61"/>
+      <c r="C12" s="68"/>
       <c r="D12" s="19" t="s">
         <v>20</v>
       </c>
@@ -1157,20 +1259,23 @@
       <c r="F12" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="60" t="s">
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="61"/>
-      <c r="I12" s="19" t="s">
+      <c r="K12" s="68"/>
+      <c r="L12" s="19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="38"/>
+      <c r="C13" s="45"/>
       <c r="D13" s="18" t="s">
         <v>26</v>
       </c>
@@ -1180,20 +1285,23 @@
       <c r="F13" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="37" t="s">
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="38"/>
-      <c r="I13" s="18" t="s">
+      <c r="K13" s="45"/>
+      <c r="L13" s="18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="38"/>
+      <c r="C14" s="45"/>
       <c r="D14" s="18" t="s">
         <v>27</v>
       </c>
@@ -1201,26 +1309,32 @@
       <c r="F14" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="50" t="s">
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="38"/>
-      <c r="I14" s="18" t="s">
+      <c r="K14" s="45"/>
+      <c r="L14" s="18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="13"/>
       <c r="E15" s="4"/>
       <c r="F15" s="13"/>
-      <c r="G15" s="15"/>
+      <c r="G15" s="13"/>
       <c r="H15" s="13"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I15" s="13"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -1230,8 +1344,11 @@
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -1241,35 +1358,39 @@
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G27" s="17"/>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J27" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="L2:L5"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="D2:H4"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="D2:K4"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J14:K14"/>
     <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J9:K9"/>
     <mergeCell ref="B2:C5"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J11:K11"/>
     <mergeCell ref="D10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="79" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="67" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1278,7 +1399,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1048576"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1343,16 +1464,16 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="42" t="s">
+      <c r="B5" s="61"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="34" t="s">
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="41" t="s">
         <v>5</v>
       </c>
       <c r="K5">
@@ -1361,38 +1482,38 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="35"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="35"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="42"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="39" t="s">
+      <c r="B8" s="65"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="36"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="43"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -1446,17 +1567,17 @@
       <c r="C11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="52"/>
+      <c r="E11" s="59"/>
       <c r="F11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="53" t="s">
+      <c r="G11" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="52"/>
+      <c r="H11" s="59"/>
       <c r="I11" s="11" t="s">
         <v>17</v>
       </c>
@@ -1465,34 +1586,34 @@
       <c r="A12" s="1"/>
       <c r="B12" s="22"/>
       <c r="C12" s="23"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="49"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="73"/>
       <c r="F12" s="24"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="49"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="73"/>
       <c r="I12" s="24"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="52"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="59"/>
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="61"/>
+      <c r="C14" s="68"/>
       <c r="D14" s="19" t="s">
         <v>20</v>
       </c>
@@ -1502,20 +1623,20 @@
       <c r="F14" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="60" t="s">
+      <c r="G14" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="61"/>
+      <c r="H14" s="68"/>
       <c r="I14" s="19" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="38"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="18" t="s">
         <v>26</v>
       </c>
@@ -1525,20 +1646,20 @@
       <c r="F15" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="37" t="s">
+      <c r="G15" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="38"/>
+      <c r="H15" s="45"/>
       <c r="I15" s="18" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="38"/>
+      <c r="C16" s="45"/>
       <c r="D16" s="18" t="s">
         <v>27</v>
       </c>
@@ -1546,10 +1667,10 @@
       <c r="F16" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="50" t="s">
+      <c r="G16" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="38"/>
+      <c r="H16" s="45"/>
       <c r="I16" s="18" t="s">
         <v>27</v>
       </c>

--- a/PY_ERP_PROJECT/PY21_ERP_TAG_THUONG_MAI/assets/templates/excel/PRINT_KD0201.xlsx
+++ b/PY_ERP_PROJECT/PY21_ERP_TAG_THUONG_MAI/assets/templates/excel/PRINT_KD0201.xlsx
@@ -169,7 +169,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="&quot;Ngày &quot;dd&quot; tháng &quot;mm&quot; năm &quot;yyyy"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -233,6 +233,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -432,13 +438,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -533,9 +540,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -576,10 +580,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -606,10 +606,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -626,8 +622,27 @@
     <xf numFmtId="165" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Comma" xfId="4" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="2"/>
     <cellStyle name="Comma 2 2 4" xfId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -962,7 +977,7 @@
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12:K12"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1010,66 +1025,66 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="49" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="41" t="s">
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="40" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="42"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="41"/>
     </row>
     <row r="4" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="42"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="41"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="46" t="str">
+      <c r="B5" s="62"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="45" t="str">
         <f>+"Ngày "&amp;DAY(N2)&amp;" tháng "&amp;MONTH(N2)&amp;" năm "&amp;YEAR(N2)</f>
         <v>Ngày 0 tháng 1 năm 1900</v>
       </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="43"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="42"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -1149,10 +1164,10 @@
       <c r="C9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="58" t="s">
+      <c r="D9" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="59"/>
+      <c r="E9" s="56"/>
       <c r="F9" s="11" t="s">
         <v>15</v>
       </c>
@@ -1165,10 +1180,10 @@
       <c r="I9" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="60" t="s">
+      <c r="J9" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="59"/>
+      <c r="K9" s="56"/>
       <c r="L9" s="11" t="s">
         <v>17</v>
       </c>
@@ -1183,33 +1198,33 @@
         <f>+Q2</f>
         <v>0</v>
       </c>
-      <c r="D10" s="70">
+      <c r="D10" s="66">
         <f>+R2</f>
         <v>0</v>
       </c>
-      <c r="E10" s="71"/>
+      <c r="E10" s="67"/>
       <c r="F10" s="38">
         <f>+S2</f>
         <v>0</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="72">
         <f>+T2</f>
         <v>0</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="72">
         <f t="shared" ref="H10:I10" si="0">+U2</f>
         <v>0</v>
       </c>
-      <c r="I10" s="39">
+      <c r="I10" s="72">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J10" s="55">
+      <c r="J10" s="73">
         <f>+W2</f>
         <v>0</v>
       </c>
-      <c r="K10" s="56"/>
-      <c r="L10" s="40" t="str">
+      <c r="K10" s="74"/>
+      <c r="L10" s="39" t="str">
         <f>IF(X2=0,"",X2)</f>
         <v/>
       </c>
@@ -1225,31 +1240,31 @@
       <c r="F11" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="33">
-        <f>SUM($G$10:G10)</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="33">
-        <f>SUM($H$10:H10)</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="33">
-        <f>SUM($I$10:I10)</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="69">
-        <f>SUM($J$10:J10)</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="59"/>
+      <c r="G11" s="75">
+        <f ca="1">SUM(INDIRECT("$G$10:G"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="75">
+        <f ca="1">SUM(INDIRECT("$H$10:H"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="75">
+        <f ca="1">SUM(INDIRECT("$I$10:I"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="76">
+        <f ca="1">SUM(INDIRECT("$J$10:J"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="77"/>
       <c r="L11" s="12"/>
     </row>
     <row r="12" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="68"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="19" t="s">
         <v>20</v>
       </c>
@@ -1262,20 +1277,20 @@
       <c r="G12" s="37"/>
       <c r="H12" s="37"/>
       <c r="I12" s="37"/>
-      <c r="J12" s="67" t="s">
+      <c r="J12" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="K12" s="68"/>
+      <c r="K12" s="65"/>
       <c r="L12" s="19" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="45"/>
+      <c r="C13" s="44"/>
       <c r="D13" s="18" t="s">
         <v>26</v>
       </c>
@@ -1288,20 +1303,20 @@
       <c r="G13" s="34"/>
       <c r="H13" s="34"/>
       <c r="I13" s="34"/>
-      <c r="J13" s="44" t="s">
+      <c r="J13" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="K13" s="45"/>
+      <c r="K13" s="44"/>
       <c r="L13" s="18" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="45"/>
+      <c r="C14" s="44"/>
       <c r="D14" s="18" t="s">
         <v>27</v>
       </c>
@@ -1312,10 +1327,10 @@
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
-      <c r="J14" s="57" t="s">
+      <c r="J14" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="45"/>
+      <c r="K14" s="44"/>
       <c r="L14" s="18" t="s">
         <v>27</v>
       </c>
@@ -1464,16 +1479,16 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="49" t="s">
+      <c r="B5" s="58"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="41" t="s">
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="40" t="s">
         <v>5</v>
       </c>
       <c r="K5">
@@ -1482,38 +1497,38 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="42"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="41"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="42"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="41"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="46" t="s">
+      <c r="B8" s="62"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="43"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="42"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -1567,17 +1582,17 @@
       <c r="C11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="59"/>
+      <c r="E11" s="56"/>
       <c r="F11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="60" t="s">
+      <c r="G11" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="59"/>
+      <c r="H11" s="56"/>
       <c r="I11" s="11" t="s">
         <v>17</v>
       </c>
@@ -1586,34 +1601,34 @@
       <c r="A12" s="1"/>
       <c r="B12" s="22"/>
       <c r="C12" s="23"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="73"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="69"/>
       <c r="F12" s="24"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="73"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="69"/>
       <c r="I12" s="24"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="59"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="56"/>
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="68"/>
+      <c r="C14" s="65"/>
       <c r="D14" s="19" t="s">
         <v>20</v>
       </c>
@@ -1623,20 +1638,20 @@
       <c r="F14" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="67" t="s">
+      <c r="G14" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="68"/>
+      <c r="H14" s="65"/>
       <c r="I14" s="19" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="45"/>
+      <c r="C15" s="44"/>
       <c r="D15" s="18" t="s">
         <v>26</v>
       </c>
@@ -1646,20 +1661,20 @@
       <c r="F15" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="44" t="s">
+      <c r="G15" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="45"/>
+      <c r="H15" s="44"/>
       <c r="I15" s="18" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="45"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="18" t="s">
         <v>27</v>
       </c>
@@ -1667,10 +1682,10 @@
       <c r="F16" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="57" t="s">
+      <c r="G16" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="45"/>
+      <c r="H16" s="44"/>
       <c r="I16" s="18" t="s">
         <v>27</v>
       </c>

--- a/PY_ERP_PROJECT/PY21_ERP_TAG_THUONG_MAI/assets/templates/excel/PRINT_KD0201.xlsx
+++ b/PY_ERP_PROJECT/PY21_ERP_TAG_THUONG_MAI/assets/templates/excel/PRINT_KD0201.xlsx
@@ -147,9 +147,6 @@
     <t>TABLE_COLUMN</t>
   </si>
   <si>
-    <t>SL tồn kho</t>
-  </si>
-  <si>
     <t>SL khả dụng</t>
   </si>
   <si>
@@ -157,6 +154,9 @@
   </si>
   <si>
     <t>SL YCDH</t>
+  </si>
+  <si>
+    <t>SL giữ chỗ</t>
   </si>
 </sst>
 </file>
@@ -542,6 +542,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -580,6 +587,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -606,6 +617,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -621,24 +639,6 @@
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -977,7 +977,7 @@
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1025,66 +1025,66 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="48" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="40" t="s">
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="42" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="41"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="43"/>
     </row>
     <row r="4" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="41"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="43"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="45" t="str">
+      <c r="B5" s="66"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="47" t="str">
         <f>+"Ngày "&amp;DAY(N2)&amp;" tháng "&amp;MONTH(N2)&amp;" năm "&amp;YEAR(N2)</f>
         <v>Ngày 0 tháng 1 năm 1900</v>
       </c>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="42"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="44"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -1164,26 +1164,26 @@
       <c r="C9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="56"/>
+      <c r="E9" s="60"/>
       <c r="F9" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9" s="56"/>
+      <c r="K9" s="60"/>
       <c r="L9" s="11" t="s">
         <v>17</v>
       </c>
@@ -1198,32 +1198,32 @@
         <f>+Q2</f>
         <v>0</v>
       </c>
-      <c r="D10" s="66">
+      <c r="D10" s="72">
         <f>+R2</f>
         <v>0</v>
       </c>
-      <c r="E10" s="67"/>
+      <c r="E10" s="73"/>
       <c r="F10" s="38">
         <f>+S2</f>
         <v>0</v>
       </c>
-      <c r="G10" s="72">
+      <c r="G10" s="40">
         <f>+T2</f>
         <v>0</v>
       </c>
-      <c r="H10" s="72">
+      <c r="H10" s="40">
         <f t="shared" ref="H10:I10" si="0">+U2</f>
         <v>0</v>
       </c>
-      <c r="I10" s="72">
+      <c r="I10" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J10" s="73">
+      <c r="J10" s="56">
         <f>+W2</f>
         <v>0</v>
       </c>
-      <c r="K10" s="74"/>
+      <c r="K10" s="57"/>
       <c r="L10" s="39" t="str">
         <f>IF(X2=0,"",X2)</f>
         <v/>
@@ -1240,31 +1240,31 @@
       <c r="F11" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="75">
+      <c r="G11" s="41">
         <f ca="1">SUM(INDIRECT("$G$10:G"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="H11" s="75">
+      <c r="H11" s="41">
         <f ca="1">SUM(INDIRECT("$H$10:H"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="I11" s="75">
+      <c r="I11" s="41">
         <f ca="1">SUM(INDIRECT("$I$10:I"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="J11" s="76">
+      <c r="J11" s="70">
         <f ca="1">SUM(INDIRECT("$J$10:J"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="K11" s="77"/>
+      <c r="K11" s="71"/>
       <c r="L11" s="12"/>
     </row>
     <row r="12" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="65"/>
+      <c r="C12" s="69"/>
       <c r="D12" s="19" t="s">
         <v>20</v>
       </c>
@@ -1277,20 +1277,20 @@
       <c r="G12" s="37"/>
       <c r="H12" s="37"/>
       <c r="I12" s="37"/>
-      <c r="J12" s="64" t="s">
+      <c r="J12" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="K12" s="65"/>
+      <c r="K12" s="69"/>
       <c r="L12" s="19" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="44"/>
+      <c r="C13" s="46"/>
       <c r="D13" s="18" t="s">
         <v>26</v>
       </c>
@@ -1303,20 +1303,20 @@
       <c r="G13" s="34"/>
       <c r="H13" s="34"/>
       <c r="I13" s="34"/>
-      <c r="J13" s="43" t="s">
+      <c r="J13" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="K13" s="44"/>
+      <c r="K13" s="46"/>
       <c r="L13" s="18" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="44"/>
+      <c r="C14" s="46"/>
       <c r="D14" s="18" t="s">
         <v>27</v>
       </c>
@@ -1327,10 +1327,10 @@
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
-      <c r="J14" s="54" t="s">
+      <c r="J14" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="44"/>
+      <c r="K14" s="46"/>
       <c r="L14" s="18" t="s">
         <v>27</v>
       </c>
@@ -1479,16 +1479,16 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="48" t="s">
+      <c r="B5" s="62"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="40" t="s">
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="42" t="s">
         <v>5</v>
       </c>
       <c r="K5">
@@ -1497,38 +1497,38 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="41"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="43"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="41"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="43"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="45" t="s">
+      <c r="B8" s="66"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="42"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="44"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -1582,17 +1582,17 @@
       <c r="C11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="56"/>
+      <c r="E11" s="60"/>
       <c r="F11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="57" t="s">
+      <c r="G11" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="56"/>
+      <c r="H11" s="60"/>
       <c r="I11" s="11" t="s">
         <v>17</v>
       </c>
@@ -1601,34 +1601,34 @@
       <c r="A12" s="1"/>
       <c r="B12" s="22"/>
       <c r="C12" s="23"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="69"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="75"/>
       <c r="F12" s="24"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="69"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="75"/>
       <c r="I12" s="24"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="56"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="60"/>
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="65"/>
+      <c r="C14" s="69"/>
       <c r="D14" s="19" t="s">
         <v>20</v>
       </c>
@@ -1638,20 +1638,20 @@
       <c r="F14" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="64" t="s">
+      <c r="G14" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="65"/>
+      <c r="H14" s="69"/>
       <c r="I14" s="19" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="44"/>
+      <c r="C15" s="46"/>
       <c r="D15" s="18" t="s">
         <v>26</v>
       </c>
@@ -1661,20 +1661,20 @@
       <c r="F15" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="43" t="s">
+      <c r="G15" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="44"/>
+      <c r="H15" s="46"/>
       <c r="I15" s="18" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="44"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="18" t="s">
         <v>27</v>
       </c>
@@ -1682,10 +1682,10 @@
       <c r="F16" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="54" t="s">
+      <c r="G16" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="44"/>
+      <c r="H16" s="46"/>
       <c r="I16" s="18" t="s">
         <v>27</v>
       </c>
